--- a/汽柴煤油2.0/eta/汽油出口利润-华东-新加坡_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/汽油出口利润-华东-新加坡_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>226.7</v>
+        <v>277.4</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>331.8</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.59999999999999</v>
+        <v>122.5</v>
       </c>
       <c r="C4" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>50.8</v>
       </c>
       <c r="C5" t="n">
-        <v>139.4</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>-182</v>
       </c>
       <c r="C6" t="n">
-        <v>-114.4</v>
+        <v>-114.6</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         <v>-250.6</v>
       </c>
       <c r="C7" t="n">
-        <v>-218.6</v>
+        <v>-235.3</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>-188.9</v>
       </c>
       <c r="C8" t="n">
-        <v>-183.3</v>
+        <v>-184</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         <v>-147.4</v>
       </c>
       <c r="C9" t="n">
-        <v>-141.6</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         <v>-381.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-380.8</v>
+        <v>-380.6</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         <v>-270.3</v>
       </c>
       <c r="C11" t="n">
-        <v>-270.3</v>
+        <v>-269.3</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         <v>-226.1</v>
       </c>
       <c r="C12" t="n">
-        <v>-227.7</v>
+        <v>-228</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         <v>-364.3</v>
       </c>
       <c r="C13" t="n">
-        <v>-354.8</v>
+        <v>-356.3</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +612,7 @@
         <v>131.1</v>
       </c>
       <c r="C14" t="n">
-        <v>136.4</v>
+        <v>135.8</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +625,7 @@
         <v>583</v>
       </c>
       <c r="C15" t="n">
-        <v>584.6</v>
+        <v>583.9</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         <v>581.2</v>
       </c>
       <c r="C16" t="n">
-        <v>569.9</v>
+        <v>572.2</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         <v>61</v>
       </c>
       <c r="C17" t="n">
-        <v>57.8</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         <v>-115.6</v>
       </c>
       <c r="C18" t="n">
-        <v>-121</v>
+        <v>-120.8</v>
       </c>
     </row>
     <row r="19">
@@ -677,7 +677,7 @@
         <v>224.4</v>
       </c>
       <c r="C19" t="n">
-        <v>222.2</v>
+        <v>223.3</v>
       </c>
     </row>
     <row r="20">
@@ -690,7 +690,7 @@
         <v>-74.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-72.09999999999999</v>
+        <v>-72.90000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -703,7 +703,7 @@
         <v>4.8</v>
       </c>
       <c r="C21" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +716,7 @@
         <v>420.4</v>
       </c>
       <c r="C22" t="n">
-        <v>415</v>
+        <v>414.1</v>
       </c>
     </row>
     <row r="23">
@@ -729,7 +729,7 @@
         <v>465.1</v>
       </c>
       <c r="C23" t="n">
-        <v>464.1</v>
+        <v>464.2</v>
       </c>
     </row>
     <row r="24">
@@ -742,7 +742,7 @@
         <v>356.8</v>
       </c>
       <c r="C24" t="n">
-        <v>356.6</v>
+        <v>357.3</v>
       </c>
     </row>
     <row r="25">
@@ -755,7 +755,7 @@
         <v>151.9</v>
       </c>
       <c r="C25" t="n">
-        <v>154</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="26">
